--- a/H2/H2.result.xlsx
+++ b/H2/H2.result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhan19/Documents/GitHub/COVIDiSTRESS2_Compliance/H2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661CD3D4-6E42-CA44-91AE-6A92D7D5041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81893725-E799-F141-8ECA-23A40640777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17220" xr2:uid="{E71F9A4C-4077-264B-8519-94FF9170E458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Variable</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Infinite</t>
-  </si>
-  <si>
-    <t>Inifinite</t>
   </si>
   <si>
     <t>&lt;.001</t>
@@ -216,41 +213,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -259,6 +232,27 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F9D026-302C-9F43-A5D6-18E5D381D8EE}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,49 +581,51 @@
     <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -657,8 +653,8 @@
       <c r="H3" s="2">
         <v>21.73</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -687,8 +683,8 @@
       <c r="H4" s="2">
         <v>42.27</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>33</v>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -717,8 +713,8 @@
       <c r="H5" s="2">
         <v>34.67</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -747,8 +743,8 @@
       <c r="H6" s="2">
         <v>28.74</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -777,8 +773,8 @@
       <c r="H7" s="2">
         <v>34.31</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -807,7 +803,7 @@
       <c r="H8" s="2">
         <v>61.57</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.04</v>
       </c>
     </row>
@@ -836,22 +832,22 @@
       <c r="H9" s="2">
         <v>61.79</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>33</v>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -869,8 +865,8 @@
       <c r="E11" s="1">
         <v>-0.08</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="2">
         <v>-5.4649999999999999</v>
@@ -878,8 +874,8 @@
       <c r="H11" s="2">
         <v>70.63</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>33</v>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -907,7 +903,7 @@
       <c r="H12" s="2">
         <v>71.23</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.21</v>
       </c>
     </row>
@@ -936,7 +932,7 @@
       <c r="H13" s="2">
         <v>70.89</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.52</v>
       </c>
     </row>
@@ -966,7 +962,7 @@
       <c r="H14" s="2">
         <v>70.760000000000005</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -995,7 +991,7 @@
       <c r="H15" s="2">
         <v>71.39</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.6</v>
       </c>
     </row>
@@ -1024,22 +1020,22 @@
       <c r="H16" s="2">
         <v>71.099999999999994</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1067,13 +1063,13 @@
       <c r="H18" s="2">
         <v>71.25</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>33</v>
+      <c r="I18" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
         <v>-0.17</v>
@@ -1097,7 +1093,7 @@
       <c r="H19" s="2">
         <v>71.22</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1127,8 +1123,8 @@
       <c r="H20" s="2">
         <v>70.540000000000006</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>33</v>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1156,7 +1152,7 @@
       <c r="H21" s="2">
         <v>70.95</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.04</v>
       </c>
     </row>
@@ -1185,22 +1181,22 @@
       <c r="H22" s="2">
         <v>71.260000000000005</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.22</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1227,7 +1223,7 @@
       <c r="H24" s="2">
         <v>70.97</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -1257,7 +1253,7 @@
       <c r="H25" s="2">
         <v>70.41</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>0.02</v>
       </c>
     </row>
@@ -1286,7 +1282,7 @@
       <c r="H26" s="2">
         <v>71.19</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>0.92</v>
       </c>
     </row>
@@ -1315,7 +1311,7 @@
       <c r="H27" s="2">
         <v>71.23</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>0.71</v>
       </c>
     </row>
@@ -1344,36 +1340,36 @@
       <c r="H28" s="2">
         <v>71.180000000000007</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="6">
         <v>0.08</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="6">
         <v>0.08</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="6">
         <v>-0.08</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="6">
         <v>0.24</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="7">
         <v>-1.55951</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="7">
         <v>1.03</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="7">
         <v>70.61</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="8">
         <v>0.3</v>
       </c>
     </row>

--- a/H2/H2.result.xlsx
+++ b/H2/H2.result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhan19/Documents/GitHub/COVIDiSTRESS2_Compliance/H2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81893725-E799-F141-8ECA-23A40640777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B96FF80-5C38-814C-82A5-EE4392375B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17220" xr2:uid="{E71F9A4C-4077-264B-8519-94FF9170E458}"/>
   </bookViews>
@@ -158,7 +158,7 @@
     <numFmt numFmtId="164" formatCode=".00"/>
     <numFmt numFmtId="165" formatCode=".00#"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,12 +167,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <i/>
-      <sz val="12"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,25 +218,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,19 +254,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,805 +577,806 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.06</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.02</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.03</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.09</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <f>4.17*2</f>
         <v>8.34</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>4.75</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>21.73</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.08</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.02</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.03</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <f>2.918*2</f>
         <v>5.8360000000000003</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>3.97</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>42.27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.02</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.17</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <f>34.589*2</f>
         <v>69.177999999999997</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>5.52</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>34.67</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.02</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <f>38.524*2</f>
         <v>77.048000000000002</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>6.48</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>28.74</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.09</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.02</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.06</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.12</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <f>38.998*2</f>
         <v>77.995999999999995</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>5.81</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>34.31</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>-0.02</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.01</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>-0.05</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <f>-1.8284*2</f>
         <v>-3.6568000000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>-2.0699999999999998</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>61.57</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>0.01</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>0.17</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>9.5470000000000006</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>61.79</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>-0.13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.02</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>-0.17</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>-0.08</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>-5.4649999999999999</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>70.63</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.11</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>-0.08</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.35</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>-0.51072119999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>1.25</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>71.23</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>0.01</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.01</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>-0.01</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.03</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>-6.5206220000000004</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>0.65</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>70.89</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>0.52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>-0.04</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>0.01</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>-0.01</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <f>0.15*2</f>
         <v>0.3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>-2.528</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>70.760000000000005</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>0.01</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>0.01</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>-0.02</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.03</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>-6.0342029999999998</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>0.52</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>71.39</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>0.01</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>-0.02</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.02</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>-6.5033519999999996</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>0.18</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>71.099999999999994</v>
       </c>
-      <c r="I16" s="3">
-        <v>0.85599999999999998</v>
+      <c r="I16" s="5">
+        <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>0.17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>0.03</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>0.12</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>0.22</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <f>41.1946*2</f>
         <v>82.389200000000002</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>6.58</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>71.25</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>-0.17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>0.06</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>-0.05</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <f>2.3*2</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>-2.8180000000000001</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>71.22</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>0.08</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>0.03</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>0.03</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>0.13</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <f>2.46482*2</f>
         <v>4.92964</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>3.33</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>70.540000000000006</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>-0.16</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>0.09</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>-0.33</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>1.1561619999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>-2.0089999999999999</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>70.95</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>-0.13</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>0.11</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>-0.34</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.08</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>-0.70377230000000002</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>-1.238</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>71.260000000000005</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="5">
         <v>0.22</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>-0.02</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>0.03</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>-0.08</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0.04</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>-4.1917609999999996</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>70.97</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="5">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>-0.08</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>0.04</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>-0.15</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>-0.01</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <f>0.288*2</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>-2.25</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>70.41</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="5">
         <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>0.03</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>-0.06</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>-4.5138150000000001</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>-0.1</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>71.19</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="5">
         <v>0.92</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>-0.02</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>0.06</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>-0.13</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>0.09</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>-3.2840699999999998</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <v>-0.36799999999999999</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="4">
         <v>71.23</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="5">
         <v>0.71</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>-0.26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>0.13</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>-0.52</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>1.9565809999999999</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <v>-1.89</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>71.180000000000007</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="5">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7">
         <v>0.08</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>0.08</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>-0.08</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>0.24</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>-1.55951</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
         <v>1.03</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>70.61</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="9">
         <v>0.3</v>
       </c>
     </row>
